--- a/data/proxies.xlsx
+++ b/data/proxies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\microreward\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIỆT LẶC\projects\microsoft-reward\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A191626A-22B6-4AE3-A0AD-0918239F1C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D80788-C23F-4276-AA5B-A18856E00CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7CF498F6-C4B7-4292-BF65-7B8EE119F626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF498F6-C4B7-4292-BF65-7B8EE119F626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,169 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
-  <si>
-    <t>113.176.37.60:24334:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>113.176.37.107:21376:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>113.176.37.170:25246:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>anmikevt2@gmail.com</t>
-  </si>
-  <si>
-    <t>lenmueld@gmail.com</t>
-  </si>
-  <si>
-    <t>dvi669523@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>130599KietLac</t>
   </si>
   <si>
-    <t>113.176.37.150:12997:11111999:11111999:HTTP</t>
+    <t>kietisreal130599@gmail.com</t>
   </si>
   <si>
-    <t>cscore25@gmail.com</t>
-  </si>
-  <si>
-    <t>Noganhains12</t>
-  </si>
-  <si>
-    <t>113.164.177.218:19038:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>opersonhufana36@gmail.com</t>
-  </si>
-  <si>
-    <t>14.170.69.107:43530:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>lazyboss27@gmail.com</t>
-  </si>
-  <si>
-    <t>14.239.233.159:38284:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>pochie326@gmail.com</t>
-  </si>
-  <si>
-    <t>14.188.184.25:16224:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>icevend123@gmail.com</t>
-  </si>
-  <si>
-    <t>14.239.218.29:22927:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>akosiwuzix@gmail.com</t>
-  </si>
-  <si>
-    <t>14.235.19.93:41533:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>rindou30000@gmail.com</t>
-  </si>
-  <si>
-    <t>14.255.123.225:24084:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>Yyujinnnk913@gmail.com</t>
-  </si>
-  <si>
-    <t>14.255.123.132:17176:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>ebebgaming83@gmail.com</t>
-  </si>
-  <si>
-    <t>14.188.67.55:11311:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>clementesandyjr34@gmail.com</t>
-  </si>
-  <si>
-    <t>14.239.218.138:45274:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>adaseferjohn@gmail.com</t>
-  </si>
-  <si>
-    <t>14.255.122.127:24253:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>keinooo18@gmail.com</t>
-  </si>
-  <si>
-    <t>113.164.62.144:35061:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>daibangtino@gmail.com</t>
-  </si>
-  <si>
-    <t>14.181.48.164:11993:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>hirokalihains1@gmail.com</t>
-  </si>
-  <si>
-    <t>14.170.69.185:20788:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>nikekxiee1330@gmail.com</t>
-  </si>
-  <si>
-    <t>14.239.226.161:17936:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>teareat69@gmail.com</t>
-  </si>
-  <si>
-    <t>113.164.251.128:33115:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>waifuacczxc123@gmail.com</t>
-  </si>
-  <si>
-    <t>113.191.8.126:24386:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>solibiojay@gmail.com</t>
-  </si>
-  <si>
-    <t>123.18.51.97:36507:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>geenooooo018@gmail.com</t>
-  </si>
-  <si>
-    <t>123.17.25.71:19317:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>bembemgepiga@gmail.com</t>
-  </si>
-  <si>
-    <t>14.188.186.5:24576:11111999:11111999:HTTP</t>
-  </si>
-  <si>
-    <t>aleciajavier98@gmail.com</t>
-  </si>
-  <si>
-    <t>craigpogi2@gmail.com</t>
-  </si>
-  <si>
-    <t>14.247.73.201:13756:11111999:11111999:HTTP</t>
+    <t>none</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +76,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,7 +116,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,11 +431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5391B2-B97A-4EB7-A6A0-B67B409486C0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -589,288 +445,113 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{E6FF0D4B-A9BE-4465-BBEF-142F00E75405}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FB00746D-9AE6-43A7-9E8E-9A0EE12A4602}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{409697BA-DA9E-4CB6-B637-BDE26A7C85D5}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{7F55FF0A-6A96-4ACB-9889-FE494368DB1C}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{2BF00006-0596-4716-88E1-43F97C4F9229}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>